--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2722801.644361941</v>
+        <v>2715628.789723658</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2345916.138261948</v>
+        <v>2345916.138261951</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9242167.862601675</v>
+        <v>9242167.862601677</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>136.163836684807</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6179661948495</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -794,19 +794,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>100.6201003132518</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>240.1458296317229</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.49060606572791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.1989887754871</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>387.3948401441552</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>387.3948401441552</v>
+        <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922221</v>
+        <v>116.843954892222</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.74484489078694</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>79.71162794663286</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.69274760078362</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>50.85019043813094</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537394</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>58.76250838147514</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300339</v>
+        <v>76.68600477300336</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>166.6896206108343</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>225.4521289923099</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>294.0464696091981</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>29.17761882758429</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>141.3865903334045</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>56.27789413055176</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>50.10676822057059</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>36.39873472479802</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.9118581262124</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>64.34190763938454</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>137.6122649567902</v>
       </c>
       <c r="F22" t="n">
-        <v>74.23837614724384</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357096</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U28" t="n">
-        <v>224.8952567231484</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>161.4046520073148</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.89657674137568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>89.06668210672734</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663482</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.19914695927525</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>37.03135913814462</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452447</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>78.74694001459643</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,10 +4194,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>12.5620665112352</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>204.1291651532107</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="C2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="D2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="E2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="F2" t="n">
-        <v>212.6907427643168</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G2" t="n">
         <v>25.19784761800421</v>
@@ -4357,25 +4357,25 @@
         <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>473.5132653508255</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="U2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="V2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="W2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="X2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
       <c r="Y2" t="n">
-        <v>219.6362435135203</v>
+        <v>428.6381209881796</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="C3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="D3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L3" t="n">
-        <v>195.6857796103268</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M3" t="n">
-        <v>456.2953932224767</v>
+        <v>339.9440834239259</v>
       </c>
       <c r="N3" t="n">
-        <v>716.9050068346266</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271187</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993074</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4944708143832</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U3" t="n">
-        <v>576.8580058515026</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="V3" t="n">
-        <v>341.70589761976</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="W3" t="n">
-        <v>341.70589761976</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="X3" t="n">
-        <v>341.70589761976</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="Y3" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4521,19 +4521,19 @@
         <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.6074258865934</v>
+        <v>318.7209101204762</v>
       </c>
       <c r="C5" t="n">
-        <v>813.6074258865934</v>
+        <v>318.7209101204762</v>
       </c>
       <c r="D5" t="n">
-        <v>813.6074258865934</v>
+        <v>52.86334570079224</v>
       </c>
       <c r="E5" t="n">
-        <v>813.6074258865934</v>
+        <v>52.86334570079224</v>
       </c>
       <c r="F5" t="n">
-        <v>422.2995065490629</v>
+        <v>45.91784495158876</v>
       </c>
       <c r="G5" t="n">
-        <v>30.99158721153242</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H5" t="n">
-        <v>30.99158721153242</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153242</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931819</v>
+        <v>63.33729848931853</v>
       </c>
       <c r="K5" t="n">
-        <v>232.559939181737</v>
+        <v>232.5599391817375</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923833</v>
+        <v>494.7722161923839</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365699</v>
+        <v>803.1404427365707</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029484</v>
+        <v>1101.866392029485</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245515</v>
+        <v>1338.757197245516</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927384</v>
+        <v>1503.263635927386</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576621</v>
+        <v>1549.579360576622</v>
       </c>
       <c r="R5" t="n">
-        <v>1431.55516371579</v>
+        <v>1431.555163715792</v>
       </c>
       <c r="S5" t="n">
-        <v>1232.525147827787</v>
+        <v>1431.555163715792</v>
       </c>
       <c r="T5" t="n">
-        <v>1232.525147827787</v>
+        <v>1431.555163715792</v>
       </c>
       <c r="U5" t="n">
-        <v>1232.525147827787</v>
+        <v>1431.555163715792</v>
       </c>
       <c r="V5" t="n">
-        <v>1232.525147827787</v>
+        <v>1431.555163715792</v>
       </c>
       <c r="W5" t="n">
-        <v>1232.525147827787</v>
+        <v>1078.786508445678</v>
       </c>
       <c r="X5" t="n">
-        <v>1232.525147827787</v>
+        <v>705.320750184598</v>
       </c>
       <c r="Y5" t="n">
-        <v>842.3858158519752</v>
+        <v>705.320750184598</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>989.7394795172394</v>
+        <v>660.1510391324813</v>
       </c>
       <c r="C6" t="n">
-        <v>815.2864502361124</v>
+        <v>485.6980098513542</v>
       </c>
       <c r="D6" t="n">
-        <v>666.3520405748611</v>
+        <v>336.763600190103</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1145855694057</v>
+        <v>177.5261451846475</v>
       </c>
       <c r="F6" t="n">
-        <v>360.5800275962906</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1333405200616</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5083831172222</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153242</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J6" t="n">
-        <v>56.56309157527278</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K6" t="n">
-        <v>226.8897086170049</v>
+        <v>201.3182042532647</v>
       </c>
       <c r="L6" t="n">
-        <v>510.2821292615725</v>
+        <v>491.7477567627773</v>
       </c>
       <c r="M6" t="n">
-        <v>893.8030210042862</v>
+        <v>615.2249245801634</v>
       </c>
       <c r="N6" t="n">
-        <v>893.8030210042862</v>
+        <v>998.7458163228773</v>
       </c>
       <c r="O6" t="n">
-        <v>1208.814860114876</v>
+        <v>1313.757655433467</v>
       </c>
       <c r="P6" t="n">
-        <v>1444.636565258031</v>
+        <v>1549.579360576622</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576621</v>
+        <v>1549.579360576622</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697041</v>
+        <v>1549.579360576622</v>
       </c>
       <c r="S6" t="n">
-        <v>1466.051332697041</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="T6" t="n">
-        <v>1265.010014965991</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="U6" t="n">
-        <v>1265.010014965991</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="V6" t="n">
-        <v>1265.010014965991</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="W6" t="n">
-        <v>1265.010014965991</v>
+        <v>1243.978175123036</v>
       </c>
       <c r="X6" t="n">
-        <v>1057.158514760459</v>
+        <v>1036.126674917503</v>
       </c>
       <c r="Y6" t="n">
-        <v>1057.158514760459</v>
+        <v>828.3663761525493</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="C7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="D7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="E7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="F7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="H7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="I7" t="n">
         <v>108.452198093354</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153242</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177051</v>
+        <v>36.06994770177059</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391519</v>
+        <v>98.09493531391536</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004517</v>
+        <v>173.8807113004519</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454195</v>
+        <v>253.2990873454198</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451044</v>
+        <v>310.6385163451048</v>
       </c>
       <c r="P7" t="n">
-        <v>336.181621317909</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.181621317909</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="R7" t="n">
-        <v>167.8082671655511</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="S7" t="n">
-        <v>167.8082671655511</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="T7" t="n">
-        <v>167.8082671655511</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="U7" t="n">
-        <v>167.8082671655511</v>
+        <v>336.1816213179094</v>
       </c>
       <c r="V7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="W7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="X7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.8082671655511</v>
+        <v>108.452198093354</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702.337823625994</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C8" t="n">
-        <v>1333.375306685582</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1333.375306685582</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>1333.375306685582</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>922.389401895975</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>504.4255937941618</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2667.676748768137</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2491.499261082307</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2118.033502821228</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>210.329818152658</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5080,7 +5080,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>190.6805289025646</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046245</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615134</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1050.134140516356</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>881.1979575884486</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>731.0813181761129</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5199,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>1270.926719659886</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1050.134140516356</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,13 +5363,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.8083514132643</v>
+        <v>991.0842369787849</v>
       </c>
       <c r="C16" t="n">
-        <v>610.8083514132643</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>792.456816243504</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>792.456816243504</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.21084526296</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.4182661194303</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>807.3465877976907</v>
+        <v>985.4001231459587</v>
       </c>
       <c r="C22" t="n">
-        <v>638.4104048697839</v>
+        <v>816.4639402180518</v>
       </c>
       <c r="D22" t="n">
-        <v>488.2937654574481</v>
+        <v>666.347300805716</v>
       </c>
       <c r="E22" t="n">
-        <v>340.380671875055</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.9950526279305</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6265,7 +6265,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6384,7 +6384,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557899</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,7 +6451,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6463,13 +6463,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6496,13 +6496,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6545,19 +6545,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>260.2520934878766</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,43 +6630,43 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471162</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974664</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1465.687405162573</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1265.767395078126</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T31" t="n">
-        <v>1041.981979867631</v>
+        <v>1275.130855347405</v>
       </c>
       <c r="U31" t="n">
-        <v>752.8533410811897</v>
+        <v>986.0022165609637</v>
       </c>
       <c r="V31" t="n">
-        <v>498.168852875299</v>
+        <v>731.3177283550768</v>
       </c>
       <c r="W31" t="n">
-        <v>208.7516828383384</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7516828383384</v>
+        <v>441.9005583181162</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.7516828383384</v>
+        <v>441.9005583181162</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,43 +6697,43 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
@@ -6745,7 +6745,7 @@
         <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N33" t="n">
-        <v>2013.406634128704</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2292.946699347402</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3699.238378891363</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>3699.238378891363</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>3549.121739479027</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.02050893291</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>4148.02050893291</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>4148.02050893291</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>3920.030958034893</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>3699.238378891363</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
@@ -6976,7 +6976,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>732.6596981028219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7213,7 +7213,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7256,19 +7256,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N39" t="n">
-        <v>2013.406634128704</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>2292.946699347402</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7332,7 +7332,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
@@ -7444,13 +7444,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.130185042679</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>245.130185042679</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1419.373906906795</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1419.373906906795</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1130.245268120353</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>875.5607799144661</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>875.5607799144661</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>647.5712290164488</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>426.7786498729187</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7645,55 +7645,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137079</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582206</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688121</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799414</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471243</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974672</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.99626047346</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262966</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765241</v>
       </c>
       <c r="V46" t="n">
-        <v>662.3181469663895</v>
+        <v>531.3977182706373</v>
       </c>
       <c r="W46" t="n">
-        <v>662.3181469663895</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>169.5797582491671</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>204.7335334609821</v>
       </c>
       <c r="N3" t="n">
         <v>381.709495280812</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>100.2612329527923</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>363.7321312984645</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>458.254640518496</v>
+        <v>195.5842123110942</v>
       </c>
       <c r="N6" t="n">
-        <v>58.18106165674973</v>
+        <v>445.5759018009052</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>104.074464181718</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.49733361305157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>38.86002301949887</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>38.86002301949887</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>85.30006332127708</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>90.15606851601741</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>23.61454994042668</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>98.50870479764177</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>182.1859186272968</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.92012205572493</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>187.7957356844435</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8.821697689779</v>
       </c>
       <c r="F22" t="n">
-        <v>71.1826718756874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542497</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>237.401000040257</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U28" t="n">
-        <v>61.34209567542891</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>5.088916456062833</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.06777566241712</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>57.36728053984183</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.632833222662</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>249.4916391984464</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>119.1738699690068</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>239.5755768125928</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338031</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065634</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065634</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065625</v>
-      </c>
       <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="M2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300992</v>
+        <v>138241.1818300996</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133499</v>
+        <v>300621.8974133496</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>68875.69873124982</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414841</v>
+        <v>31952.95942414848</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179886</v>
+        <v>72609.89266179882</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,7 +26420,7 @@
         <v>279327.2236236408</v>
       </c>
       <c r="C4" t="n">
-        <v>239463.3485659245</v>
+        <v>239463.3485659244</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26429,7 +26429,7 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26441,22 +26441,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007432</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007432</v>
+        <v>7916.731656007381</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.73165600745</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007402</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007463</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26472,25 +26472,25 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267174</v>
+        <v>60032.17562267177</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175925.2414927886</v>
+        <v>175925.2414927892</v>
       </c>
       <c r="C6" t="n">
-        <v>178044.6213795172</v>
+        <v>178044.6213795164</v>
       </c>
       <c r="D6" t="n">
-        <v>84383.3032055324</v>
+        <v>84383.30320553252</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505705</v>
+        <v>-39495.09573477871</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.532001839</v>
+        <v>485664.9407421179</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018384</v>
+        <v>485664.9407421173</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.9407421173</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018384</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="J6" t="n">
-        <v>417763.833270589</v>
+        <v>416789.2420108676</v>
       </c>
       <c r="K6" t="n">
-        <v>454686.5725776907</v>
+        <v>453711.981317969</v>
       </c>
       <c r="L6" t="n">
-        <v>414029.6393400399</v>
+        <v>413055.0480803184</v>
       </c>
       <c r="M6" t="n">
-        <v>351838.5167680015</v>
+        <v>350863.9255082802</v>
       </c>
       <c r="N6" t="n">
-        <v>486639.5320018384</v>
+        <v>485664.9407421174</v>
       </c>
       <c r="O6" t="n">
-        <v>486639.5320018389</v>
+        <v>485664.9407421173</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.9407421175</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792249</v>
+        <v>130.7784101792252</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441552</v>
+        <v>387.3948401441556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26819,19 +26819,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>107.7650274924356</v>
+        <v>107.7650274924359</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378617</v>
+        <v>246.9652540378614</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924886</v>
+        <v>124.152806192489</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104004</v>
+        <v>286.8924326104</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924886</v>
+        <v>124.152806192489</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104004</v>
+        <v>286.8924326104002</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27260,10 +27260,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924886</v>
+        <v>124.152806192489</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104004</v>
+        <v>286.8924326104</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>270.7122090569044</v>
       </c>
       <c r="G2" t="n">
-        <v>229.5922552089819</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>125.3180251569654</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.54915352919667</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>7.411751991653006</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>143.9296961568204</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>354.2432355977527</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.48405284519589</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>19.48120559755625</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>27.38215501850057</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>334.0905432484386</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>197.0397157291233</v>
       </c>
       <c r="T5" t="n">
         <v>220.7944124161532</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.7883387590804</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.518707828811</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.71162794663283</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.69274760078358</v>
       </c>
       <c r="S6" t="n">
-        <v>166.4582034896018</v>
+        <v>115.6080130514709</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
         <v>225.9228757021759</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>160.1304301278448</v>
       </c>
       <c r="I7" t="n">
-        <v>89.59591767901468</v>
+        <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463142</v>
+        <v>66.41450331463138</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
         <v>219.9067257039628</v>
@@ -27833,7 +27833,7 @@
         <v>286.3061659063093</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>26.68551433151814</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>29.87630315515901</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>25.30078374722742</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>12.48683429008034</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>83.64851512467979</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.135540558991016e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29565,10 +29565,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.578389629958818e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-3.175636652747341e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1.22087239772727e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29760,16 +29760,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.027790984800239e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30000,13 +30000,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30237,13 +30237,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,16 +30273,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30468,13 +30468,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.285232868702947e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792958</v>
+        <v>0.5257423524792969</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328589</v>
+        <v>5.384258867328601</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395807</v>
+        <v>20.26868204395811</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873967</v>
+        <v>44.62172498873976</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918827</v>
+        <v>66.87639876918841</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887654</v>
+        <v>82.96608628887672</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684978021</v>
+        <v>92.31575684978041</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876201</v>
+        <v>93.80952230876223</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129602</v>
+        <v>88.5816717912962</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446338</v>
+        <v>75.60240746446355</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629859</v>
+        <v>56.77425946629872</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892759</v>
+        <v>33.02516304892767</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712196</v>
+        <v>11.98035385712199</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978118</v>
+        <v>2.301437147978123</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834365</v>
+        <v>0.04205938819834375</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439932</v>
+        <v>0.2812969577439938</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685409</v>
+        <v>2.716736407685415</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782224</v>
+        <v>9.685004904782245</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387438</v>
+        <v>26.57639371387444</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272192</v>
+        <v>45.42328988272202</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945783</v>
+        <v>61.07721882945797</v>
       </c>
       <c r="M6" t="n">
-        <v>71.27423354767757</v>
+        <v>71.27423354767772</v>
       </c>
       <c r="N6" t="n">
-        <v>73.16065042658357</v>
+        <v>73.16065042658373</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709825</v>
+        <v>66.92770204709839</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323675</v>
+        <v>53.71538134323686</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430342</v>
+        <v>35.9073099043035</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185952</v>
+        <v>17.46508655185955</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614236011</v>
+        <v>5.224967614236022</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082148</v>
+        <v>1.13382414108215</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894693</v>
+        <v>0.01850637879894697</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953236</v>
+        <v>0.2358299199953241</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594788</v>
+        <v>2.096742379594792</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768461</v>
+        <v>7.092048866768477</v>
       </c>
       <c r="J7" t="n">
-        <v>16.67317534366938</v>
+        <v>16.67317534366941</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672941</v>
+        <v>27.39914888672947</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821384</v>
+        <v>35.06147737821392</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344876</v>
+        <v>36.96741191344885</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437532</v>
+        <v>36.0884094843754</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715721</v>
+        <v>33.33348723715728</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925258</v>
+        <v>28.52255686925264</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706296</v>
+        <v>19.74753993706301</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633518</v>
+        <v>10.60377076633521</v>
       </c>
       <c r="S7" t="n">
-        <v>4.10987233300941</v>
+        <v>4.109872333009419</v>
       </c>
       <c r="T7" t="n">
-        <v>1.00763693088911</v>
+        <v>1.007636930889112</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156312</v>
+        <v>0.01286345018156315</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.77327950617509</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>75.14179310326399</v>
       </c>
       <c r="N3" t="n">
         <v>263.2420339516666</v>
@@ -34795,10 +34795,10 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412715</v>
+        <v>32.67243563412725</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953724</v>
+        <v>170.9319602953726</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693398</v>
+        <v>264.8608858693399</v>
       </c>
       <c r="M5" t="n">
-        <v>311.48305711534</v>
+        <v>311.4830571153402</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241552</v>
+        <v>301.7433831241555</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323547</v>
+        <v>239.2836416323548</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806765</v>
+        <v>166.1681198806767</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175378</v>
+        <v>46.78356025175391</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.82980238761652</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.0470879209415</v>
+        <v>172.0470879209416</v>
       </c>
       <c r="L6" t="n">
-        <v>286.2549703480482</v>
+        <v>293.363184353043</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3948401441552</v>
+        <v>124.7244119367536</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>387.3948401441556</v>
       </c>
       <c r="O6" t="n">
-        <v>318.1937768793833</v>
+        <v>318.1937768793834</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688437</v>
+        <v>238.2037425688438</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.002823554131</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846558</v>
+        <v>5.129657060846615</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852998</v>
+        <v>62.65150263853006</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528934</v>
+        <v>76.55128887528943</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360391</v>
+        <v>80.220581863604</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119688</v>
+        <v>57.91861515119695</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414607</v>
+        <v>25.80111613414613</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>94.40751256795831</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187101</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789694</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>245.9534379510236</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>245.9534379510236</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761838</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299155</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
